--- a/local/public/uploads/ฟอร์มเคอรี่.xlsx
+++ b/local/public/uploads/ฟอร์มเคอรี่.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6900" windowWidth="19440" windowHeight="1095"/>
+    <workbookView xWindow="0" yWindow="7860" windowWidth="19440" windowHeight="1155"/>
   </bookViews>
   <sheets>
     <sheet name="Consignments " sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -478,236 +478,167 @@
     </r>
   </si>
   <si>
-    <t>ร.ท.สุวัฒน์ ศรีสมบัติ</t>
-  </si>
-  <si>
-    <t>บ ก.ร.14 พัน13 ค่ายวชิรปราการ ต.ไม้งาม อ.เมือง จ.ตาก</t>
-  </si>
-  <si>
-    <t>080-7410942</t>
-  </si>
-  <si>
-    <t>นางฮูดาย์  จาปรัง</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32/21 หมู่ 8  ซอย 11   ต.ตะลูโบะ อ.เมือง จ.ปัตตานี</t>
-  </si>
-  <si>
-    <t>093-580-0085</t>
-  </si>
-  <si>
-    <t>พนัส ปุราโส</t>
-  </si>
-  <si>
-    <t>275 หมู่ 4 ตำบลสันทรายหลวง อำเภอสันทราย จังหวัดเชียงใหม่</t>
-  </si>
-  <si>
-    <t>094 -6349249</t>
-  </si>
-  <si>
-    <t>ร้าน อาณีมาร์ ต้นไทร</t>
-  </si>
-  <si>
-    <t>232/6 ม.6 ต. ปะลุกาสาเมาะ อ.บาเจาะ จ.นราธิวาส</t>
-  </si>
-  <si>
-    <t>081-896-8505</t>
-  </si>
-  <si>
-    <t>คุณมนตรี แย้มศรีจันทร์</t>
-  </si>
-  <si>
-    <t>54 /138 หมู่บ้านประภัสสร 3  หมู่ 9 ต.คลองมะเดื่อ อ.กระทุ่มแบน จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>088-458-8178</t>
-  </si>
-  <si>
-    <t>ธนภัทร ชาวสูงเนิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65/96 หมู่บ้าน NC on green charm ซอย ลำลูกกา 71 ต.ลาดสวาย อ.ลำลูกกา จ.ปทุมธานี </t>
-  </si>
-  <si>
-    <t>098-5563598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สำนักงานทนายความสุมิตร์ สุยะ </t>
-  </si>
-  <si>
-    <t>113 ม.3 ต.เวียง อ.ฝาง จ.เชียงใหม่</t>
-  </si>
-  <si>
-    <t>093-289-7583</t>
-  </si>
-  <si>
-    <t>พิสิษฐ์ โพธิกุล</t>
-  </si>
-  <si>
-    <t>101/50 ต.บ้านฉาง อ.บ้านฉาง จ.ระยอง</t>
-  </si>
-  <si>
-    <t>063-663-5464</t>
-  </si>
-  <si>
-    <t>น.ส. มยุรฉัตร แสงจันทร์</t>
-  </si>
-  <si>
-    <t>111/18 หมู่บ้านภัณฑิรา ซอย 2 ซอยรังสิต-นครนายก 8 ต.ประชาธิปัตย์ อ.ธัญบุรี จ.ปทุมธานี</t>
-  </si>
-  <si>
-    <t>094-482-8642</t>
-  </si>
-  <si>
-    <t>คุณมุรธา นาจรุง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81/3 ซ.อิสรภาพ 27 แขวงท่าพระ เขตบางกอกใหญ่ กทม </t>
-  </si>
-  <si>
-    <t>086-397-9796</t>
-  </si>
-  <si>
-    <t>คุณสุกัญญา เนตรใหญ่</t>
-  </si>
-  <si>
-    <t>149/2 ม.8 (ร้านประสิทธิ์ไม้เรือเก่า) ต.ต้นเปา อ.สันกำแพง  จ.เชียงใหม่</t>
-  </si>
-  <si>
-    <t>089-431-8163</t>
-  </si>
-  <si>
-    <t>ฐานิตา คำรินทร์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 หมู่ 5 ตำบลแก่งเลิงจาน อำเภอเมือง จังหวัดมหาสารคาม </t>
-  </si>
-  <si>
-    <t>093-2359264</t>
-  </si>
-  <si>
-    <t>กานต์สิรี จันทจร</t>
-  </si>
-  <si>
-    <t>97 หมู่ 23 บ้านเชียงเหียนน้อย ต.เขวา อ.เมือง จ.มหาสารคาม</t>
-  </si>
-  <si>
-    <t>099-639-8941</t>
-  </si>
-  <si>
-    <t>สมใจ หนูแก้ว</t>
-  </si>
-  <si>
-    <t>89/5 ถนนบ้านพรุธานี 3 ต.บ้านพรุ อ.หาดใหญ่ จ.สงขลา</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 081-8985866</t>
-  </si>
-  <si>
-    <t>นายณธชัย แจ๋วเจริญกุล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คณะเกษตรศาสตร์ มหาวิทยาลัยเชียงใหม่ 239 ถนนห้วยแก้ว ตำบลสุเทพ  อำเภอเมือง จังหวัดเชียงใหม่ </t>
-  </si>
-  <si>
-    <t>090-3326644</t>
-  </si>
-  <si>
-    <t>คุณสุนี กรณ์แก้ว</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232/5 ถ.ศรีนครินทร์ ต.สำโรงเหนือ อ.เมือง จ. สมุทรปราการ </t>
-  </si>
-  <si>
-    <t>092-265-5636</t>
-  </si>
-  <si>
-    <t>คุณชัชรี คุ้มภัย</t>
-  </si>
-  <si>
-    <t>72 ม.1 ต.สะเดาะพง อ.เขาค้อ จ.เพชรบูรณ์</t>
-  </si>
-  <si>
-    <t>063-173-7897</t>
-  </si>
-  <si>
-    <t>นายเมยสิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ที่อยู่ 133 ม.3 ต.ท่าถ่าน อ.พนมสารคาม จ.ฉะเชิงเทรา </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 098-5957694</t>
-  </si>
-  <si>
-    <t>เกษม พรมฤทธิ์</t>
-  </si>
-  <si>
-    <t>590/35 หมู่ 4 บ้านมั่นคงสุขุมวิท ซอย 27 ถนนสุขุมวิท ตำบลนาเกลือ อำเภอบางละมุง  จังหวัดชลบุรี</t>
-  </si>
-  <si>
-    <t>091-697-7054</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ปภาณ บุตรดีขันธ์</t>
-  </si>
-  <si>
-    <t>72/126 อาคาร12 การเคหะหลักสี่ ซ.แจ้งวัฒนะ5  แขวงทุ่งสองห้อง  เขตหลักสี่ กทม</t>
-  </si>
-  <si>
-    <t>099-102-9995</t>
-  </si>
-  <si>
-    <t>นางปฐมา. เจ็กกุณา</t>
-  </si>
-  <si>
-    <t>76 บ้านตาลกลาง   หมู่ 5 ต.บ้านตาล  อ.ฮอด จ.เชียงใหม่</t>
-  </si>
-  <si>
-    <t>080-8563383</t>
-  </si>
-  <si>
-    <t>คุณ วิภา คำเพิ่ม</t>
-  </si>
-  <si>
-    <t>96/5 ถ.พระราม ต.ท่าหิน อ.เมือง จ.ลพบุรี</t>
-  </si>
-  <si>
-    <t>089-089-3590</t>
-  </si>
-  <si>
-    <t>คุณวรพจน์ อนุชัย</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83 หมู่ 3 ซ.7 ต.หางดง อ.หางดง จ.เชียงใหม่ </t>
-  </si>
-  <si>
-    <t>081-9516370</t>
-  </si>
-  <si>
-    <t>คุณ  มะลิจันทร์  บุญนิยม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77 หมู 2  บ้าน ตาด ต. แพด อ. คำตากล้า จ. สกลนคร </t>
-  </si>
-  <si>
-    <t>087-2211398</t>
-  </si>
-  <si>
-    <t>น.ส.ณัฐฏาฐ์กุล วราพันธุมาศ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119 หมู่ 9 ต.ละแม อ.ละแม จ.ชุมพร </t>
-  </si>
-  <si>
-    <t>099-1654164</t>
+    <t>คุณเนตรนภิส อุ่นทรพันธุ์</t>
+  </si>
+  <si>
+    <t>189/72 หมู่บ้านคริสตัลพาร์ค ถนนประดิษฐ์มนูธรรม  แขวงลาดพร้าว เขตลาดพร้าว กทม.</t>
+  </si>
+  <si>
+    <t>คุณนิรินรัตน์  ทองนุช</t>
+  </si>
+  <si>
+    <t>51 หมู่ 15 ถ.นาเชือก-พยัคฆภูมิพิสัย ต.นาเชือก อ.นาเชือก จ.มหาสารคาม</t>
+  </si>
+  <si>
+    <t>คุณเรวดี  กองเสริมทรัพย์</t>
+  </si>
+  <si>
+    <t>166 หมู่บ้านกิจสยามวิลล่า ซ. บางแค 9 ถ.สุขาภิบาล 1  แขวงบางแค เขตบางแค  กทม</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> คุณกัลยารัตน์  วรไชยเจริญภัทร</t>
+  </si>
+  <si>
+    <t>999/779 หมู่บ้านสินวงศ์การเด้น  ซ.เศรษฐกิจ  31 ต.บางแคเหนือ อ.บางแค  กทม.</t>
+  </si>
+  <si>
+    <t>คุณทัชชภร นามจันดา</t>
+  </si>
+  <si>
+    <t>345/128 พลัมคอนโดแจ้งวัฒนะ ซ.แจ้งวัฒนะ 1 ถ.แจ้งวัฒนะ แขวงตลาดบางเขน เขตหลักสี่ กทม.</t>
+  </si>
+  <si>
+    <t>คุณธารารัตน์ รังสีวิจิตรประภา</t>
+  </si>
+  <si>
+    <t>388/2 ม.1 ต.หนองตาแต้ม อ.ปราณบุรี จ.ประจวบคีรีขันธ์</t>
+  </si>
+  <si>
+    <t>คุณวรปภา อายะวงศ์</t>
+  </si>
+  <si>
+    <t>21 อาคารทีเอสที ทาวเวอร์ ชั้น 9 ถนนวิภาวดีรังสิต แขวงจอมพล เขตจตุจักร กทม</t>
+  </si>
+  <si>
+    <t>097-2159396</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 063-6922879</t>
+  </si>
+  <si>
+    <t>089-9887314</t>
+  </si>
+  <si>
+    <t>086-7943716</t>
+  </si>
+  <si>
+    <t>062-8898264</t>
+  </si>
+  <si>
+    <t>098-9528924</t>
+  </si>
+  <si>
+    <t>095-8341292</t>
+  </si>
+  <si>
+    <t>คุณประคอง ศรีจันทร์มาก</t>
+  </si>
+  <si>
+    <t>52 ถ.ชายกระป๋อง 1 ต.เชิงเนิน อ.เมือง จ.ระยอง</t>
+  </si>
+  <si>
+    <t>คุณเพชรมุกดา  ศิริพัฒนกุลพร</t>
+  </si>
+  <si>
+    <t>31 ซอยเพชรเกษม 41  แขวงบางแค  เขตบางแค กรุงเทพฯ</t>
+  </si>
+  <si>
+    <t>คุณจันทร์พิมพ์ ศรีเสวก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39/2 หมู่ 1 ตำบลบางกระทึก อำเภอสามพราน จังหวัดนครปฐม </t>
+  </si>
+  <si>
+    <t>คุณพรทิพย์ อายุวัฒน์</t>
+  </si>
+  <si>
+    <t>59/3 หมู่ 3 ตำบลหนองยาว อำเภอพนมสารคาม จังหวัดฉะเชิงเทรา</t>
+  </si>
+  <si>
+    <t>คุณอัจฉราพร ขุนจันทร์</t>
+  </si>
+  <si>
+    <t>35/377 ศุภาลัยวิสตร้าติวานนท์ ถ.กรุงเทพ-นนทบุรี ต.ตลาดขวัญ อ.เมือง จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>081-7814409</t>
+  </si>
+  <si>
+    <t>081-6594525</t>
+  </si>
+  <si>
+    <t>089-8236191</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 086-1446396</t>
+  </si>
+  <si>
+    <t>086-9437576</t>
+  </si>
+  <si>
+    <t>คุณตาเที่ยง หล้าสิม</t>
+  </si>
+  <si>
+    <t>35 ม.17 ต.บรบือ  อ.บรบือ  จ.มหาสารคาม</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 087-6372894</t>
+  </si>
+  <si>
+    <t>ดต.ธนากร บวรอัศวิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109/14 ม.3 ซ.ไหหลำ ต.หนองบัว อ.เมืองกาญจนบุรี จ.กาญจนบุรี </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 098-2545825</t>
+  </si>
+  <si>
+    <t>คุณวิญญู พวงสันเทียะ</t>
+  </si>
+  <si>
+    <t>15 ม.8 บ้านกระโดน ต.หนองไข่น้ำ อ.เมือง จ.นครราชสีมา</t>
+  </si>
+  <si>
+    <t>คุณวิชัย สารบัญ</t>
+  </si>
+  <si>
+    <t>93 ม.6 ต.กำแพง อ.ละงู จ.สตูล</t>
+  </si>
+  <si>
+    <t>097-2142076</t>
+  </si>
+  <si>
+    <t>089-6596599</t>
+  </si>
+  <si>
+    <t>คุณวิชิต สารบัญ</t>
+  </si>
+  <si>
+    <t>คุณพรททิพย์ ภิรมณ์กิจ</t>
+  </si>
+  <si>
+    <t>40/14 ซ.เย็นจิต 7 แขวงทุ่งวัดดอน เขตสาทร กทม.</t>
+  </si>
+  <si>
+    <t>085-1996967</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +695,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -785,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,6 +775,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,11 +1060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1200,7 +1150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
       <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
@@ -1208,118 +1158,120 @@
         <v>20</v>
       </c>
       <c r="G2" s="14">
-        <v>63000</v>
+        <v>10230</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="14">
+        <v>44170</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C4" s="12"/>
+      <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="14">
-        <v>94000</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="14">
+        <v>10160</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C5" s="12"/>
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="14">
-        <v>50210</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G5" s="14">
+        <v>10160</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G6" s="14">
+        <v>10210</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="14">
-        <v>96170</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="7" t="s">
+      <c r="G7" s="14">
+        <v>77120</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="14">
-        <v>74110</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="14">
-        <v>12150</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" s="14">
-        <v>50110</v>
+        <v>10900</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E9" s="7" t="s">
         <v>40</v>
       </c>
@@ -1327,118 +1279,121 @@
         <v>41</v>
       </c>
       <c r="G9" s="14">
-        <v>21130</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>42</v>
+        <v>21000</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="14">
+        <v>10160</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="12"/>
+      <c r="E11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="14">
-        <v>12130</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="14">
+        <v>73210</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="12"/>
+      <c r="E12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="14">
-        <v>10600</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="G12" s="14">
+        <v>24120</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="14">
-        <v>50130</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" s="14">
-        <v>44000</v>
+        <v>11000</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>54</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="14">
+        <v>71190</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="14">
-        <v>44000</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="G15" s="14">
+        <v>44130</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="14">
-        <v>90250</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E16" s="7" t="s">
         <v>61</v>
       </c>
@@ -1446,243 +1401,129 @@
         <v>62</v>
       </c>
       <c r="G16" s="14">
-        <v>50200</v>
+        <v>30310</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="5:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="G17" s="14">
-        <v>10270</v>
+        <v>91110</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>66</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="14">
+        <v>10120</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="14">
-        <v>67270</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="14">
-        <v>24120</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="14">
-        <v>20150</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="14">
-        <v>10210</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="14">
-        <v>50240</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="14">
-        <v>15000</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="14">
-        <v>50230</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="14">
-        <v>47250</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="14">
-        <v>86170</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I33" s="7"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="21"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="I41" s="7"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I45" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/local/public/uploads/ฟอร์มเคอรี่.xlsx
+++ b/local/public/uploads/ฟอร์มเคอรี่.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7860" windowWidth="19440" windowHeight="1155"/>
+    <workbookView xWindow="0" yWindow="9180" windowWidth="19440" windowHeight="1095"/>
   </bookViews>
   <sheets>
     <sheet name="Consignments " sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -478,167 +478,38 @@
     </r>
   </si>
   <si>
-    <t>คุณเนตรนภิส อุ่นทรพันธุ์</t>
-  </si>
-  <si>
-    <t>189/72 หมู่บ้านคริสตัลพาร์ค ถนนประดิษฐ์มนูธรรม  แขวงลาดพร้าว เขตลาดพร้าว กทม.</t>
-  </si>
-  <si>
-    <t>คุณนิรินรัตน์  ทองนุช</t>
-  </si>
-  <si>
-    <t>51 หมู่ 15 ถ.นาเชือก-พยัคฆภูมิพิสัย ต.นาเชือก อ.นาเชือก จ.มหาสารคาม</t>
-  </si>
-  <si>
-    <t>คุณเรวดี  กองเสริมทรัพย์</t>
-  </si>
-  <si>
-    <t>166 หมู่บ้านกิจสยามวิลล่า ซ. บางแค 9 ถ.สุขาภิบาล 1  แขวงบางแค เขตบางแค  กทม</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> คุณกัลยารัตน์  วรไชยเจริญภัทร</t>
-  </si>
-  <si>
-    <t>999/779 หมู่บ้านสินวงศ์การเด้น  ซ.เศรษฐกิจ  31 ต.บางแคเหนือ อ.บางแค  กทม.</t>
-  </si>
-  <si>
-    <t>คุณทัชชภร นามจันดา</t>
-  </si>
-  <si>
-    <t>345/128 พลัมคอนโดแจ้งวัฒนะ ซ.แจ้งวัฒนะ 1 ถ.แจ้งวัฒนะ แขวงตลาดบางเขน เขตหลักสี่ กทม.</t>
-  </si>
-  <si>
-    <t>คุณธารารัตน์ รังสีวิจิตรประภา</t>
-  </si>
-  <si>
-    <t>388/2 ม.1 ต.หนองตาแต้ม อ.ปราณบุรี จ.ประจวบคีรีขันธ์</t>
-  </si>
-  <si>
-    <t>คุณวรปภา อายะวงศ์</t>
-  </si>
-  <si>
-    <t>21 อาคารทีเอสที ทาวเวอร์ ชั้น 9 ถนนวิภาวดีรังสิต แขวงจอมพล เขตจตุจักร กทม</t>
-  </si>
-  <si>
-    <t>097-2159396</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 063-6922879</t>
-  </si>
-  <si>
-    <t>089-9887314</t>
-  </si>
-  <si>
-    <t>086-7943716</t>
-  </si>
-  <si>
-    <t>062-8898264</t>
-  </si>
-  <si>
-    <t>098-9528924</t>
-  </si>
-  <si>
-    <t>095-8341292</t>
-  </si>
-  <si>
-    <t>คุณประคอง ศรีจันทร์มาก</t>
-  </si>
-  <si>
-    <t>52 ถ.ชายกระป๋อง 1 ต.เชิงเนิน อ.เมือง จ.ระยอง</t>
-  </si>
-  <si>
-    <t>คุณเพชรมุกดา  ศิริพัฒนกุลพร</t>
-  </si>
-  <si>
-    <t>31 ซอยเพชรเกษม 41  แขวงบางแค  เขตบางแค กรุงเทพฯ</t>
-  </si>
-  <si>
-    <t>คุณจันทร์พิมพ์ ศรีเสวก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39/2 หมู่ 1 ตำบลบางกระทึก อำเภอสามพราน จังหวัดนครปฐม </t>
-  </si>
-  <si>
-    <t>คุณพรทิพย์ อายุวัฒน์</t>
-  </si>
-  <si>
-    <t>59/3 หมู่ 3 ตำบลหนองยาว อำเภอพนมสารคาม จังหวัดฉะเชิงเทรา</t>
-  </si>
-  <si>
-    <t>คุณอัจฉราพร ขุนจันทร์</t>
-  </si>
-  <si>
-    <t>35/377 ศุภาลัยวิสตร้าติวานนท์ ถ.กรุงเทพ-นนทบุรี ต.ตลาดขวัญ อ.เมือง จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>081-7814409</t>
-  </si>
-  <si>
-    <t>081-6594525</t>
-  </si>
-  <si>
-    <t>089-8236191</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 086-1446396</t>
-  </si>
-  <si>
-    <t>086-9437576</t>
-  </si>
-  <si>
-    <t>คุณตาเที่ยง หล้าสิม</t>
-  </si>
-  <si>
-    <t>35 ม.17 ต.บรบือ  อ.บรบือ  จ.มหาสารคาม</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 087-6372894</t>
-  </si>
-  <si>
-    <t>ดต.ธนากร บวรอัศวิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109/14 ม.3 ซ.ไหหลำ ต.หนองบัว อ.เมืองกาญจนบุรี จ.กาญจนบุรี </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 098-2545825</t>
-  </si>
-  <si>
-    <t>คุณวิญญู พวงสันเทียะ</t>
-  </si>
-  <si>
-    <t>15 ม.8 บ้านกระโดน ต.หนองไข่น้ำ อ.เมือง จ.นครราชสีมา</t>
-  </si>
-  <si>
-    <t>คุณวิชัย สารบัญ</t>
-  </si>
-  <si>
-    <t>93 ม.6 ต.กำแพง อ.ละงู จ.สตูล</t>
-  </si>
-  <si>
-    <t>097-2142076</t>
-  </si>
-  <si>
-    <t>089-6596599</t>
-  </si>
-  <si>
-    <t>คุณวิชิต สารบัญ</t>
-  </si>
-  <si>
-    <t>คุณพรททิพย์ ภิรมณ์กิจ</t>
-  </si>
-  <si>
-    <t>40/14 ซ.เย็นจิต 7 แขวงทุ่งวัดดอน เขตสาทร กทม.</t>
-  </si>
-  <si>
-    <t>085-1996967</t>
+    <t>คุณณัฎยา นนทศิริ</t>
+  </si>
+  <si>
+    <t>73 ตรอกธรรมา แขวงรองเมือง เขตปทุมวัน กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>081-8051060</t>
+  </si>
+  <si>
+    <t>คุณนันทชัย เชิดเกียรติกุล</t>
+  </si>
+  <si>
+    <t>3/3 ม.3 หลังโรงเรียนชลพินิจ ซ.บ้านสวน-สุขุมวิท 23 ต.บ้านสวน อ.เมือง จ.ชลบุรี</t>
+  </si>
+  <si>
+    <t>คุณนภัสร ลือกระจ่าง</t>
+  </si>
+  <si>
+    <t>999/7 หมู่บ้านเอสสิริภัสสร 2 หมู่ 6 ต.บางพระ อ.ศรีราชา จ.ชลบุรี</t>
+  </si>
+  <si>
+    <t>085-9595959</t>
+  </si>
+  <si>
+    <t>096-6324924</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,21 +647,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1059,15 +924,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="9" customWidth="1"/>
@@ -1091,7 +956,7 @@
     <col min="20" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="80.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1150,380 +1015,59 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="E2" s="7" t="s">
+    <row r="2" spans="1:19" ht="28.5">
+      <c r="C2" s="9"/>
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="14">
-        <v>10230</v>
+        <v>10330</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="42.75">
+      <c r="C3" s="9"/>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="14">
+        <v>20000</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="14">
-        <v>44170</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C4" s="12"/>
+    <row r="4" spans="1:19" ht="28.5">
+      <c r="C4" s="9"/>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="14">
+        <v>20110</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="14">
-        <v>10160</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C5" s="12"/>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="14">
-        <v>10160</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="14">
-        <v>10210</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="14">
-        <v>77120</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="14">
-        <v>10900</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="14">
-        <v>21000</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="14">
-        <v>10160</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C11" s="12"/>
-      <c r="E11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="14">
-        <v>73210</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C12" s="12"/>
-      <c r="E12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="14">
-        <v>24120</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="E13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="14">
-        <v>11000</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="14">
-        <v>71190</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="14">
-        <v>44130</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="14">
-        <v>30310</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="14">
-        <v>91110</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="14">
-        <v>10120</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="21"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="21"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
